--- a/example/outputs/rollup.xlsx
+++ b/example/outputs/rollup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Quarter 2 - FY18</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Trouble</t>
   </si>
   <si>
-    <t>&lt;= 50% Covered</t>
+    <t>&lt; 51% Covered</t>
   </si>
   <si>
     <t>Watch</t>
@@ -61,7 +61,7 @@
     <t>No Worries</t>
   </si>
   <si>
-    <t>&gt; 81% Covered</t>
+    <t>&gt; 80% Covered</t>
   </si>
   <si>
     <t>Technical Group</t>
@@ -106,10 +106,13 @@
     <t>Oct 24-Nov 20</t>
   </si>
   <si>
+    <t>Nov 21-Dec 25</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Dec 27, 2018 - Dec 25, 2019</t>
+    <t>Dec 27 2018 - Dec 25 2019</t>
   </si>
   <si>
     <t>Percent Covered</t>
@@ -679,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="9"/>
     </row>
@@ -727,7 +730,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -767,14 +770,17 @@
       <c r="L12" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="M12" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="N12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>96</v>
@@ -821,7 +827,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>176</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -915,7 +921,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>8</v>
